--- a/medicine/Mort/Panthéon_de_Didube/Panthéon_de_Didube.xlsx
+++ b/medicine/Mort/Panthéon_de_Didube/Panthéon_de_Didube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_de_Didube</t>
+          <t>Panthéon_de_Didube</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Panthéon de Didube (Georgien : დიდუბის მწერალთა და საზოგადო მოღვაწეთა პანთეონი) est un cimetière de Tbilissi, en Géorgie, où certains artistes, écrivains,  politiques, scientifiques et universitaires sont inhumés. 
 Ce panthéon a été fondé en 1939 et est situé au Nord de la capitale géorgienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_de_Didube</t>
+          <t>Panthéon_de_Didube</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Personnalités enterrées dans ce cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Grigol Abachidze
 Tamar Abakelia
-Tengiz Abuładze[1]
+Tengiz Abuładze
 Elguja Amashukeli
 Jakow Anfimow
 Dimitri Arakichvili
